--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1113,7 +1113,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1686,7 +1686,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2259,7 +2259,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>37496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27046</v>
+        <v>26876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50835</v>
+        <v>50005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08037088052975139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05797168038271358</v>
+        <v>0.05760719413806911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1089618039921188</v>
+        <v>0.1071820176705583</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>429047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415708</v>
+        <v>416538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439497</v>
+        <v>439667</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9196291194702486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8910381960078814</v>
+        <v>0.8928179823294418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9420283196172865</v>
+        <v>0.942392805861931</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>52444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39331</v>
+        <v>39131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67619</v>
+        <v>67001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07724311247812959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05792957964612778</v>
+        <v>0.05763486047775405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09959461943654833</v>
+        <v>0.09868418661442144</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>626502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>611327</v>
+        <v>611945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>639615</v>
+        <v>639815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9227568875218704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9004053805634515</v>
+        <v>0.9013158133855791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.942070420353872</v>
+        <v>0.9423651395222467</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>45308</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34417</v>
+        <v>33799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59089</v>
+        <v>59680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0946882818595679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07192733717652572</v>
+        <v>0.07063620421076371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1234883014026054</v>
+        <v>0.1247222357590305</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>433193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419412</v>
+        <v>418821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>444084</v>
+        <v>444702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9053117181404321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8765116985973943</v>
+        <v>0.8752777642409696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9280726628234742</v>
+        <v>0.9293637957892364</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>75929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59869</v>
+        <v>60851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93006</v>
+        <v>92116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1034649304976128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08157993565231275</v>
+        <v>0.08291832960029352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.126734944132673</v>
+        <v>0.1255217106789584</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>657936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>640859</v>
+        <v>641749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>673996</v>
+        <v>673014</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8965350695023873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8732650558673265</v>
+        <v>0.8744782893210417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9184200643476869</v>
+        <v>0.9170816703997065</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>211178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08956365109376808</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>2146677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2117724</v>
+        <v>2118770</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2174559</v>
+        <v>2172513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9104363489062319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8981568594780192</v>
+        <v>0.8986004684574319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9222614351496348</v>
+        <v>0.9213937673563558</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>46488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34948</v>
+        <v>33279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60385</v>
+        <v>60702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.101334349687083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07617893658353755</v>
+        <v>0.0725406596619801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.131627356641391</v>
+        <v>0.132318002028653</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>412269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398372</v>
+        <v>398055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423809</v>
+        <v>425478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.898665650312917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.868372643358609</v>
+        <v>0.8676819979713474</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9238210634164624</v>
+        <v>0.92745934033802</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>70784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54793</v>
+        <v>56725</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88748</v>
+        <v>90652</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09575991457588044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07412624222526197</v>
+        <v>0.07673988546074369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1200616660723142</v>
+        <v>0.122637415109729</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>668402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>650438</v>
+        <v>648534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684393</v>
+        <v>682461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9042400854241196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8799383339276857</v>
+        <v>0.8773625848902714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.925873757774738</v>
+        <v>0.9232601145392563</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>46639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35348</v>
+        <v>35468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64308</v>
+        <v>61794</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08470924444233291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06420180881553091</v>
+        <v>0.06442037411088794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1168003819914924</v>
+        <v>0.1122351246721396</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>503938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486269</v>
+        <v>488783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515229</v>
+        <v>515109</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.915290755557667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8831996180085077</v>
+        <v>0.8877648753278605</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9357981911844692</v>
+        <v>0.9355796258891121</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>69250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53553</v>
+        <v>54115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87501</v>
+        <v>86891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1020743896209232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0789369411204465</v>
+        <v>0.07976439929116266</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1289750793002348</v>
+        <v>0.1280773176911007</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>609180</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590929</v>
+        <v>591539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>624877</v>
+        <v>624315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8979256103790768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8710249206997652</v>
+        <v>0.8719226823088994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9210630588795535</v>
+        <v>0.9202356007088375</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>233162</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09607182632570507</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>2193788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2160297</v>
+        <v>2159274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2221015</v>
+        <v>2221916</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9039281736742949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8901282240823798</v>
+        <v>0.8897066346857039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9151465257682576</v>
+        <v>0.9155179997069282</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>25291</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17480</v>
+        <v>17176</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35783</v>
+        <v>35916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06072558912982461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.041971646933405</v>
+        <v>0.04124113812656244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08591847917194574</v>
+        <v>0.08623669649747143</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>391186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380694</v>
+        <v>380561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398997</v>
+        <v>399301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9392744108701754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9140815208280539</v>
+        <v>0.9137633035025287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9580283530665951</v>
+        <v>0.9587588618734376</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>40832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30645</v>
+        <v>28607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54771</v>
+        <v>52736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05887159423784824</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0441838691956891</v>
+        <v>0.0412460494776629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07896895181658768</v>
+        <v>0.07603592713985885</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>652741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>638802</v>
+        <v>640837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>662928</v>
+        <v>664966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9411284057621517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9210310481834116</v>
+        <v>0.9239640728601413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9558161308043107</v>
+        <v>0.9587539505223373</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>36028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25900</v>
+        <v>25790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48072</v>
+        <v>49136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06480907158954179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04659042550340865</v>
+        <v>0.04639178142915302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08647394765522987</v>
+        <v>0.08838781023232074</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>519889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507845</v>
+        <v>506781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530017</v>
+        <v>530127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9351909284104583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.91352605234477</v>
+        <v>0.9116121897676793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9534095744965913</v>
+        <v>0.9536082185708471</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>46489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35143</v>
+        <v>34266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61070</v>
+        <v>60417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06973929907126128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05271995689880945</v>
+        <v>0.05140383215164794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09161327479468617</v>
+        <v>0.09063333733256294</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>620117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605536</v>
+        <v>606189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>631463</v>
+        <v>632340</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9302607009287387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9083867252053136</v>
+        <v>0.9093666626674377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9472800431011902</v>
+        <v>0.9485961678483521</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>148640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06372347490961837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>2183933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2160078</v>
+        <v>2158424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2206268</v>
+        <v>2204919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9362765250903816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9260494307148173</v>
+        <v>0.9253401908097371</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9458514985858933</v>
+        <v>0.9452732448064985</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>10504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5252</v>
+        <v>5806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18146</v>
+        <v>19348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02501318235249093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.012506916799226</v>
+        <v>0.01382615552724875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04320898705080158</v>
+        <v>0.04607188908630675</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>409453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401811</v>
+        <v>400609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414705</v>
+        <v>414151</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9749868176475092</v>
+        <v>0.9749868176475091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9567910129491984</v>
+        <v>0.9539281109136935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9874930832007739</v>
+        <v>0.9861738444727512</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>15280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7830</v>
+        <v>8011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26322</v>
+        <v>26069</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02229876716128009</v>
+        <v>0.02229876716128008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01142579086069264</v>
+        <v>0.01169126409372364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03841165656712411</v>
+        <v>0.03804260304762191</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>669968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>658926</v>
+        <v>659179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>677418</v>
+        <v>677237</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9777012328387199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615883434328758</v>
+        <v>0.9619573969523783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9885742091393074</v>
+        <v>0.9883087359062764</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>21517</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13405</v>
+        <v>12846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33649</v>
+        <v>33232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0408566164144319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02545259636647999</v>
+        <v>0.02439113838433896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06389234783602847</v>
+        <v>0.06310096595657309</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>505138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>493006</v>
+        <v>493423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513250</v>
+        <v>513809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9591433835855681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.936107652163972</v>
+        <v>0.9368990340434271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.97454740363352</v>
+        <v>0.9756088616156614</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>18380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11327</v>
+        <v>11443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27781</v>
+        <v>28325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02831738595122062</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0174509921382153</v>
+        <v>0.01762982585352987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04280198771912471</v>
+        <v>0.04363935254844602</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>630680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>621279</v>
+        <v>620735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>637733</v>
+        <v>637617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9716826140487793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9571980122808754</v>
+        <v>0.9563606474515545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9825490078617847</v>
+        <v>0.9823701741464701</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>65682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02879613205893626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>2215239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2196076</v>
+        <v>2198010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2228875</v>
+        <v>2229516</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9712038679410638</v>
+        <v>0.9712038679410636</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9628022765000739</v>
+        <v>0.963650322600875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9771820697042113</v>
+        <v>0.977463138673059</v>
       </c>
     </row>
     <row r="18">
